--- a/Успеваемость_С-ИП-21-2_Т.xlsx
+++ b/Успеваемость_С-ИП-21-2_Т.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5ADE12-49E6-CC4B-8FD9-7568E76C58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051BAA72-337C-B04D-BFB7-FB9232AB030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Удов</t>
   </si>
 </sst>
 </file>
@@ -1578,9 +1587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="topRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="AE2" s="29">
-        <f>SUM(M2:AD2)</f>
+        <f t="shared" ref="AE2:AE18" si="0">SUM(M2:AD2)</f>
         <v>100</v>
       </c>
     </row>
@@ -1875,7 +1884,7 @@
         <v>-10</v>
       </c>
       <c r="AE3" s="29">
-        <f>SUM(M3:AD3)</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
     </row>
@@ -1971,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="AE4" s="29">
-        <f>SUM(M4:AD4)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
@@ -2067,7 +2076,7 @@
         <v>-10</v>
       </c>
       <c r="AE5" s="29">
-        <f>SUM(M5:AD5)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
@@ -2163,7 +2172,7 @@
         <v>-10</v>
       </c>
       <c r="AE6" s="29">
-        <f>SUM(M6:AD6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2259,7 +2268,7 @@
         <v>-10</v>
       </c>
       <c r="AE7" s="29">
-        <f>SUM(M7:AD7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2355,7 +2364,7 @@
         <v>15</v>
       </c>
       <c r="AE8" s="29">
-        <f>SUM(M8:AD8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2451,7 +2460,7 @@
         <v>-10</v>
       </c>
       <c r="AE9" s="29">
-        <f>SUM(M9:AD9)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -2547,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="AE10" s="29">
-        <f>SUM(M10:AD10)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -2643,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="AE11" s="29">
-        <f>SUM(M11:AD11)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2739,7 +2748,7 @@
         <v>-10</v>
       </c>
       <c r="AE12" s="29">
-        <f>SUM(M12:AD12)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -2835,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="AE13" s="29">
-        <f>SUM(M13:AD13)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
@@ -2931,7 +2940,7 @@
         <v>-10</v>
       </c>
       <c r="AE14" s="29">
-        <f>SUM(M14:AD14)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -3027,7 +3036,7 @@
         <v>-10</v>
       </c>
       <c r="AE15" s="29">
-        <f>SUM(M15:AD15)</f>
+        <f t="shared" si="0"/>
         <v>-65</v>
       </c>
     </row>
@@ -3123,7 +3132,7 @@
         <v>-10</v>
       </c>
       <c r="AE16" s="29">
-        <f>SUM(M16:AD16)</f>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
     </row>
@@ -3219,7 +3228,7 @@
         <v>-10</v>
       </c>
       <c r="AE17" s="29">
-        <f>SUM(M17:AD17)</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
@@ -3315,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="AE18" s="29">
-        <f>SUM(M18:AD18)</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
     </row>
@@ -3560,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3701,10 +3710,11 @@
         <v>17</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="K4" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
@@ -3765,10 +3775,11 @@
         <v>13</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="K6" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
@@ -3795,8 +3806,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -3825,10 +3835,11 @@
         <v>18</v>
       </c>
       <c r="J8" s="19">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
@@ -3860,7 +3871,9 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
@@ -3890,7 +3903,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
@@ -3920,7 +3935,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
@@ -3983,10 +4000,11 @@
         <v>17</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="K13" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
@@ -4018,7 +4036,9 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
@@ -4137,10 +4157,11 @@
         <v>16</v>
       </c>
       <c r="J18" s="19">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="K18" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>

--- a/Успеваемость_С-ИП-21-2_Т.xlsx
+++ b/Успеваемость_С-ИП-21-2_Т.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051BAA72-337C-B04D-BFB7-FB9232AB030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CEF31-BED0-5245-A416-A355ADAC2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -134,7 +134,10 @@
     <t>Отлично</t>
   </si>
   <si>
-    <t>Удов</t>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -155,11 +158,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -295,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -358,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1589,7 +1606,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3570,7 +3587,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3584,7 +3601,9 @@
     <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3619,7 +3638,9 @@
       <c r="J1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
@@ -3649,7 +3670,9 @@
         <f>SUM(C2:I2)</f>
         <v>62</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
@@ -3678,10 +3701,12 @@
         <v>18</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J18" si="0">SUM(C3:I3)</f>
+        <f t="shared" ref="J3:J17" si="0">SUM(C3:I3)</f>
         <v>97</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
@@ -3748,7 +3773,9 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
@@ -3808,7 +3835,9 @@
       <c r="J7" s="19">
         <v>91</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
@@ -3903,7 +3932,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3935,7 +3964,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3971,7 +4000,9 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
@@ -4070,7 +4101,9 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
@@ -4102,7 +4135,9 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="32" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
@@ -4129,10 +4164,11 @@
         <v>12</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
@@ -4229,7 +4265,7 @@
       <c r="K23" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K18">
+  <conditionalFormatting sqref="C3:K9 C2:J2 C12:K18 C10:J11">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
